--- a/data/raw/Gene Synthesis Data.xlsx
+++ b/data/raw/Gene Synthesis Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\repos\gene_synthesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Documents\gene_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47480F17-DBF8-43E4-9D0E-AD573FD1AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA39BB8-E7CA-4451-AD73-2E2B498D1133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{BA02C05C-6F40-4F84-9EF1-B86BA2199FA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA02C05C-6F40-4F84-9EF1-B86BA2199FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="By Firm Price" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="142">
   <si>
     <t>Year</t>
   </si>
@@ -409,18 +401,12 @@
     <t>Not selling anything ye</t>
   </si>
   <si>
-    <t>Nothing yet</t>
-  </si>
-  <si>
     <t>Benchtop</t>
   </si>
   <si>
     <t>No public quotes</t>
   </si>
   <si>
-    <t>No Info</t>
-  </si>
-  <si>
     <t>Oligo Fragment Tube</t>
   </si>
   <si>
@@ -448,9 +434,6 @@
     <t>Nuclera</t>
   </si>
   <si>
-    <t>No Product Yet</t>
-  </si>
-  <si>
     <t>Labgenius</t>
   </si>
   <si>
@@ -469,15 +452,9 @@
     <t>Touchlifht</t>
   </si>
   <si>
-    <t>No public Quotes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Benchtop </t>
   </si>
   <si>
-    <t>No public quotes + benchtop</t>
-  </si>
-  <si>
     <t>Prices further back in nmol</t>
   </si>
   <si>
@@ -491,6 +468,21 @@
   </si>
   <si>
     <t>Carlson Average</t>
+  </si>
+  <si>
+    <t>Base Length</t>
+  </si>
+  <si>
+    <t>Num bases is max number available, not minimum price</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Max is 3k+</t>
+  </si>
+  <si>
+    <t>All prices are for lowest cost genes</t>
   </si>
 </sst>
 </file>
@@ -581,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -614,6 +606,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -921,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -929,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29EC58-18AE-490B-8A6B-DE550D0C0FE1}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="78" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,7 +941,7 @@
     <col min="2" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -949,316 +949,326 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="9"/>
+      <c r="G11" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="9"/>
+      <c r="G12" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="9"/>
+      <c r="G13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="9"/>
+      <c r="G14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="9"/>
+      <c r="G15" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="9"/>
+      <c r="G17" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="9"/>
+      <c r="G18" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="9"/>
+      <c r="G19" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="9"/>
+      <c r="G20" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="9"/>
+      <c r="G21" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="9"/>
+      <c r="G22" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="9"/>
+      <c r="G23" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="9"/>
+      <c r="G24" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="9"/>
+      <c r="G25" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1271,10 +1281,14 @@
       <c r="D29" s="9">
         <v>0.09</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1288,9 +1302,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1303,10 +1317,14 @@
       <c r="D31" s="9">
         <v>0.09</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1320,9 +1338,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -1335,10 +1353,14 @@
       <c r="D33" s="9">
         <v>0.09</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1352,9 +1374,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1367,10 +1389,14 @@
       <c r="D35" s="9">
         <v>0.09</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -1384,9 +1410,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -1399,10 +1425,14 @@
       <c r="D37" s="9">
         <v>0.09</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1416,9 +1446,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -1431,10 +1461,12 @@
       <c r="D39" s="9">
         <v>0.09</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -1448,9 +1480,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -1463,10 +1495,12 @@
       <c r="D41" s="9">
         <v>0.09</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="9">
+        <v>1800</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -1481,16 +1515,18 @@
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>16</v>
       </c>
@@ -1504,9 +1540,14 @@
         <v>0.19</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F44" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>16</v>
       </c>
@@ -1520,9 +1561,14 @@
         <v>0.19</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>16</v>
       </c>
@@ -1536,9 +1582,14 @@
         <v>0.23</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F46" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
@@ -1552,9 +1603,14 @@
         <v>0.23</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1568,9 +1624,14 @@
         <v>0.23</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>16</v>
       </c>
@@ -1584,9 +1645,14 @@
         <v>0.23</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
@@ -1600,9 +1666,14 @@
         <v>0.23</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>16</v>
       </c>
@@ -1616,9 +1687,14 @@
         <v>0.23</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>16</v>
       </c>
@@ -1632,9 +1708,14 @@
         <v>0.23</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
@@ -1648,9 +1729,14 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F53" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>16</v>
       </c>
@@ -1664,9 +1750,14 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>16</v>
       </c>
@@ -1681,8 +1772,9 @@
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>16</v>
       </c>
@@ -1697,8 +1789,9 @@
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
         <v>16</v>
       </c>
@@ -1713,8 +1806,9 @@
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
         <v>16</v>
       </c>
@@ -1729,8 +1823,9 @@
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
         <v>16</v>
       </c>
@@ -1745,8 +1840,9 @@
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>16</v>
       </c>
@@ -1761,8 +1857,9 @@
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
         <v>16</v>
       </c>
@@ -1777,8 +1874,9 @@
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
         <v>16</v>
       </c>
@@ -1793,8 +1891,9 @@
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +1908,9 @@
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>16</v>
       </c>
@@ -1825,26 +1925,29 @@
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B67" s="9">
         <v>2022</v>
@@ -1855,181 +1958,194 @@
       <c r="D67" s="9">
         <v>0.39</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="14"/>
+      <c r="G67" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B68" s="9">
         <v>2022</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D68" s="9">
         <v>0.7</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B69" s="9">
         <v>2022</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D69" s="9">
         <v>0.32</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B70" s="9">
         <v>2021</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D70" s="9">
         <v>0.7</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B71" s="9">
         <v>2021</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B72" s="9">
         <v>2020</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D72" s="9">
         <v>0.7</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B73" s="9">
         <v>2020</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B74" s="9">
         <v>2019</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D74" s="9">
         <v>0.7</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B75" s="9">
         <v>2019</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B76" s="9">
         <v>2018</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D76" s="9">
         <v>0.7</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B77" s="9">
         <v>2018</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D77" s="9">
         <v>0.32</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
@@ -2044,8 +2160,9 @@
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2177,9 @@
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>24</v>
       </c>
@@ -2076,8 +2194,9 @@
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2211,9 @@
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>24</v>
       </c>
@@ -2108,8 +2228,9 @@
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>24</v>
       </c>
@@ -2124,8 +2245,9 @@
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
@@ -2140,8 +2262,9 @@
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
@@ -2156,8 +2279,9 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>24</v>
       </c>
@@ -2172,8 +2296,9 @@
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>24</v>
       </c>
@@ -2188,8 +2313,9 @@
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>24</v>
       </c>
@@ -2204,8 +2330,9 @@
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
@@ -2220,8 +2347,9 @@
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -2236,8 +2364,9 @@
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>24</v>
       </c>
@@ -2252,8 +2381,9 @@
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2398,9 @@
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2284,16 +2415,18 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="10" t="s">
         <v>20</v>
       </c>
@@ -2306,10 +2439,15 @@
       <c r="D97" s="1">
         <v>0.2</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1">
+        <v>3000</v>
+      </c>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G97" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10" t="s">
         <v>20</v>
       </c>
@@ -2322,10 +2460,13 @@
       <c r="D98" s="1">
         <v>0.15</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1">
+        <v>3000</v>
+      </c>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="10" t="s">
         <v>20</v>
       </c>
@@ -2338,10 +2479,13 @@
       <c r="D99" s="1">
         <v>0.25</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1">
+        <v>3000</v>
+      </c>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="10" t="s">
         <v>20</v>
       </c>
@@ -2354,10 +2498,13 @@
       <c r="D100" s="1">
         <v>0.25</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1">
+        <v>3000</v>
+      </c>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="10" t="s">
         <v>20</v>
       </c>
@@ -2370,10 +2517,13 @@
       <c r="D101" s="1">
         <v>0.25</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1">
+        <v>3000</v>
+      </c>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10" t="s">
         <v>20</v>
       </c>
@@ -2386,10 +2536,13 @@
       <c r="D102" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1">
+        <v>3000</v>
+      </c>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="10" t="s">
         <v>20</v>
       </c>
@@ -2402,10 +2555,13 @@
       <c r="D103" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1">
+        <v>3000</v>
+      </c>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10" t="s">
         <v>20</v>
       </c>
@@ -2418,11 +2574,14 @@
       <c r="D104" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E104" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10" t="s">
         <v>20</v>
       </c>
@@ -2435,10 +2594,13 @@
       <c r="D105" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>3000</v>
+      </c>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10" t="s">
         <v>20</v>
       </c>
@@ -2451,10 +2613,13 @@
       <c r="D106" s="1">
         <v>0.3</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1">
+        <v>3000</v>
+      </c>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="10" t="s">
         <v>20</v>
       </c>
@@ -2467,10 +2632,13 @@
       <c r="D107" s="1">
         <v>0.35</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1">
+        <v>3000</v>
+      </c>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="10" t="s">
         <v>20</v>
       </c>
@@ -2483,10 +2651,13 @@
       <c r="D108" s="1">
         <v>0.35</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1">
+        <v>3000</v>
+      </c>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="10" t="s">
         <v>20</v>
       </c>
@@ -2499,10 +2670,13 @@
       <c r="D109" s="1">
         <v>0.75</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1">
+        <v>3000</v>
+      </c>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="10" t="s">
         <v>20</v>
       </c>
@@ -2515,10 +2689,13 @@
       <c r="D110" s="1">
         <v>0.85</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1">
+        <v>3000</v>
+      </c>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="10" t="s">
         <v>20</v>
       </c>
@@ -2531,10 +2708,13 @@
       <c r="D111" s="1">
         <v>1.25</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1">
+        <v>500</v>
+      </c>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="10" t="s">
         <v>20</v>
       </c>
@@ -2547,10 +2727,13 @@
       <c r="D112" s="1">
         <v>2.75</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>500</v>
+      </c>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="10" t="s">
         <v>20</v>
       </c>
@@ -2563,8 +2746,11 @@
       <c r="D113" s="11">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
         <v>21</v>
       </c>
@@ -2577,8 +2763,9 @@
       <c r="D115" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="s">
         <v>21</v>
       </c>
@@ -2591,8 +2778,9 @@
       <c r="D116" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
         <v>21</v>
       </c>
@@ -2605,8 +2793,9 @@
       <c r="D117" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="s">
         <v>21</v>
       </c>
@@ -2619,8 +2808,9 @@
       <c r="D118" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
         <v>21</v>
       </c>
@@ -2633,8 +2823,9 @@
       <c r="D119" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
         <v>21</v>
       </c>
@@ -2648,7 +2839,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="s">
         <v>21</v>
       </c>
@@ -2661,8 +2852,9 @@
       <c r="D121" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="s">
         <v>21</v>
       </c>
@@ -2675,8 +2867,9 @@
       <c r="D122" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
         <v>21</v>
       </c>
@@ -2689,8 +2882,9 @@
       <c r="D123" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>21</v>
       </c>
@@ -2703,14 +2897,16 @@
       <c r="D124" s="12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B125" s="12"/>
       <c r="D125" s="12"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B126" s="12">
         <v>2022</v>
@@ -2718,8 +2914,9 @@
       <c r="D126" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126" s="12"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
         <v>18</v>
       </c>
@@ -2732,8 +2929,14 @@
       <c r="D128">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>3000</v>
+      </c>
+      <c r="G128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
         <v>18</v>
       </c>
@@ -2746,8 +2949,14 @@
       <c r="D129">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>3000</v>
+      </c>
+      <c r="G129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
         <v>18</v>
       </c>
@@ -2760,8 +2969,11 @@
       <c r="D130">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
         <v>18</v>
       </c>
@@ -2774,8 +2986,11 @@
       <c r="D131">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
         <v>18</v>
       </c>
@@ -2786,7 +3001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
         <v>18</v>
       </c>
@@ -2799,8 +3014,11 @@
       <c r="D133">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
         <v>18</v>
       </c>
@@ -2813,8 +3031,11 @@
       <c r="D134">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
         <v>18</v>
       </c>
@@ -2827,11 +3048,14 @@
       <c r="D135">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E135">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="137" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>1999</v>
@@ -2842,10 +3066,11 @@
       <c r="D137" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E137" s="16"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>2000</v>
@@ -2854,10 +3079,11 @@
         <v>111</v>
       </c>
       <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E138" s="15"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2">
         <v>2001</v>
@@ -2868,10 +3094,11 @@
       <c r="D139" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E139" s="16"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2">
         <v>2002</v>
@@ -2882,10 +3109,11 @@
       <c r="D140" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E140" s="16"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B141" s="2">
         <v>2003</v>
@@ -2896,10 +3124,11 @@
       <c r="D141" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E141" s="16"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B142" s="2">
         <v>2004</v>
@@ -2908,10 +3137,11 @@
         <v>111</v>
       </c>
       <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2">
         <v>2005</v>
@@ -2920,10 +3150,11 @@
         <v>111</v>
       </c>
       <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2">
         <v>2006</v>
@@ -2934,10 +3165,11 @@
       <c r="D144" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E144" s="16"/>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2">
         <v>2007</v>
@@ -2948,10 +3180,11 @@
       <c r="D145" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E145" s="16"/>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2">
         <v>2008</v>
@@ -2960,10 +3193,11 @@
         <v>111</v>
       </c>
       <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E146" s="15"/>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2">
         <v>2009</v>
@@ -2974,10 +3208,11 @@
       <c r="D147" s="2">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E147" s="16"/>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2">
         <v>2010</v>
@@ -2988,10 +3223,11 @@
       <c r="D148" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E148" s="16"/>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2">
         <v>2011</v>
@@ -3002,10 +3238,11 @@
       <c r="D149" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E149" s="16"/>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2">
         <v>2012</v>
@@ -3016,10 +3253,11 @@
       <c r="D150" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E150" s="16"/>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2">
         <v>2013</v>
@@ -3030,10 +3268,11 @@
       <c r="D151" s="2">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E151" s="16"/>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2">
         <v>2014</v>
@@ -3044,10 +3283,11 @@
       <c r="D152" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E152" s="16"/>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2">
         <v>2015</v>
@@ -3056,10 +3296,11 @@
         <v>111</v>
       </c>
       <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E153" s="15"/>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2">
         <v>2016</v>
@@ -3070,10 +3311,11 @@
       <c r="D154" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E154" s="16"/>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2">
         <v>2017</v>
@@ -3084,13 +3326,14 @@
       <c r="D155" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E155" s="16"/>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2">
         <v>1992</v>
@@ -3101,10 +3344,11 @@
       <c r="D157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E157" s="16"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2">
         <v>1993</v>
@@ -3113,10 +3357,11 @@
         <v>112</v>
       </c>
       <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2">
         <v>1994</v>
@@ -3125,10 +3370,11 @@
         <v>112</v>
       </c>
       <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E159" s="15"/>
+    </row>
+    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2">
         <v>1995</v>
@@ -3139,10 +3385,11 @@
       <c r="D160" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2">
         <v>1996</v>
@@ -3151,10 +3398,11 @@
         <v>112</v>
       </c>
       <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E161" s="15"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2">
         <v>1997</v>
@@ -3163,10 +3411,11 @@
         <v>112</v>
       </c>
       <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E162" s="15"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2">
         <v>1998</v>
@@ -3175,10 +3424,11 @@
         <v>112</v>
       </c>
       <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E163" s="15"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2">
         <v>1999</v>
@@ -3187,10 +3437,11 @@
         <v>112</v>
       </c>
       <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2">
         <v>2000</v>
@@ -3201,10 +3452,11 @@
       <c r="D165" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E165" s="16"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2">
         <v>2001</v>
@@ -3213,10 +3465,11 @@
         <v>112</v>
       </c>
       <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E166" s="15"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2">
         <v>2002</v>
@@ -3225,10 +3478,11 @@
         <v>112</v>
       </c>
       <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E167" s="15"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2">
         <v>2003</v>
@@ -3239,10 +3493,11 @@
       <c r="D168" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E168" s="16"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2">
         <v>2004</v>
@@ -3251,10 +3506,11 @@
         <v>112</v>
       </c>
       <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E169" s="15"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2">
         <v>2005</v>
@@ -3263,10 +3519,11 @@
         <v>112</v>
       </c>
       <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E170" s="15"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2">
         <v>2006</v>
@@ -3277,10 +3534,11 @@
       <c r="D171" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E171" s="16"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2">
         <v>2007</v>
@@ -3289,10 +3547,11 @@
         <v>112</v>
       </c>
       <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E172" s="15"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2">
         <v>2008</v>
@@ -3301,10 +3560,11 @@
         <v>112</v>
       </c>
       <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E173" s="15"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2">
         <v>2009</v>
@@ -3315,10 +3575,11 @@
       <c r="D174" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E174" s="16"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2">
         <v>2010</v>
@@ -3329,10 +3590,11 @@
       <c r="D175" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E175" s="16"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2">
         <v>2011</v>
@@ -3343,10 +3605,11 @@
       <c r="D176" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2">
         <v>2012</v>
@@ -3357,10 +3620,11 @@
       <c r="D177" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E177" s="16"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2">
         <v>2013</v>
@@ -3371,10 +3635,11 @@
       <c r="D178" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E178" s="16"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2">
         <v>2014</v>
@@ -3385,10 +3650,11 @@
       <c r="D179" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E179" s="16"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2">
         <v>2015</v>
@@ -3397,10 +3663,11 @@
         <v>112</v>
       </c>
       <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E180" s="15"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2">
         <v>2016</v>
@@ -3411,10 +3678,11 @@
       <c r="D181" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E181" s="16"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B182" s="2">
         <v>2017</v>
@@ -3425,6 +3693,7 @@
       <c r="D182" s="2">
         <v>0.05</v>
       </c>
+      <c r="E182" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,7 +3706,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4107,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E622DFA-0353-4B70-9BA2-49A728F7EBBE}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
